--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="14145"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="14145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
+    <sheet name="10-26" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +114,112 @@
   </si>
   <si>
     <t xml:space="preserve">可执行脚本可用正常运行 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王懿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆聪聪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧龙波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张朕铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aurora 
+Enigma 
+Emercoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ark 
+Nxt 
+Ignis 
+Credits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAX 
+QuarkChain 
+Groestlcoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragonchain 
+Ubiq 
+XAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scry.info 
+Tokenomy 
+Ravencoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评级-短报告：
+Aurora Enigma Emercoin Ark Nxt Ignis Credits WAX QuarkChain Groestlcoin Dragonchain Ubiq XAS Scry.info Tokenomy Ravencoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评级-报告更新：
+OMG 报告更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评级-长报告：
+monero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘方正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monero-二级市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMG-二级市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monero-除二级市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和开发讨论数据需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -213,6 +320,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -680,4 +790,228 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.75" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="9" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="7.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>43395</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43398</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>43395</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43398</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>43395</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43398</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>43398</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>43402</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>43403</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>43404</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>43405</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>43406</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>